--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H2">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N2">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q2">
-        <v>470.0023492322385</v>
+        <v>541.5734491735649</v>
       </c>
       <c r="R2">
-        <v>470.0023492322385</v>
+        <v>4874.161042562084</v>
       </c>
       <c r="S2">
-        <v>0.01782314002900083</v>
+        <v>0.01832379726925806</v>
       </c>
       <c r="T2">
-        <v>0.01782314002900083</v>
+        <v>0.01832379726925806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H3">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N3">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q3">
-        <v>190.0004883735996</v>
+        <v>211.0817985227987</v>
       </c>
       <c r="R3">
-        <v>190.0004883735996</v>
+        <v>1899.736186705188</v>
       </c>
       <c r="S3">
-        <v>0.007205081666917184</v>
+        <v>0.007141819986309131</v>
       </c>
       <c r="T3">
-        <v>0.007205081666917184</v>
+        <v>0.00714181998630913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H4">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N4">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q4">
-        <v>1097.774600657884</v>
+        <v>1248.270276170739</v>
       </c>
       <c r="R4">
-        <v>1097.774600657884</v>
+        <v>11234.43248553665</v>
       </c>
       <c r="S4">
-        <v>0.04162913325809368</v>
+        <v>0.04223444024572736</v>
       </c>
       <c r="T4">
-        <v>0.04162913325809368</v>
+        <v>0.04223444024572736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H5">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N5">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q5">
-        <v>1429.363620413848</v>
+        <v>1806.006203567988</v>
       </c>
       <c r="R5">
-        <v>1429.363620413848</v>
+        <v>16254.05583211189</v>
       </c>
       <c r="S5">
-        <v>0.05420344813299535</v>
+        <v>0.06110508480742841</v>
       </c>
       <c r="T5">
-        <v>0.05420344813299535</v>
+        <v>0.06110508480742841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H6">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N6">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q6">
-        <v>135.8610271803039</v>
+        <v>161.0660778241435</v>
       </c>
       <c r="R6">
-        <v>135.8610271803039</v>
+        <v>1449.594700417292</v>
       </c>
       <c r="S6">
-        <v>0.005152038316136039</v>
+        <v>0.005449569511776959</v>
       </c>
       <c r="T6">
-        <v>0.005152038316136039</v>
+        <v>0.005449569511776959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H7">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N7">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q7">
-        <v>699.9819477039898</v>
+        <v>733.5339313125725</v>
       </c>
       <c r="R7">
-        <v>699.9819477039898</v>
+        <v>6601.805381813152</v>
       </c>
       <c r="S7">
-        <v>0.02654428492130013</v>
+        <v>0.02481865953363197</v>
       </c>
       <c r="T7">
-        <v>0.02654428492130013</v>
+        <v>0.02481865953363196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H8">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N8">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q8">
-        <v>282.9707386222974</v>
+        <v>285.8996535654293</v>
       </c>
       <c r="R8">
-        <v>282.9707386222974</v>
+        <v>2573.096882088864</v>
       </c>
       <c r="S8">
-        <v>0.01073064231873218</v>
+        <v>0.009673235088016851</v>
       </c>
       <c r="T8">
-        <v>0.01073064231873218</v>
+        <v>0.00967323508801685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H9">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N9">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q9">
-        <v>1634.933111214687</v>
+        <v>1690.719152531244</v>
       </c>
       <c r="R9">
-        <v>1634.933111214687</v>
+        <v>15216.4723727812</v>
       </c>
       <c r="S9">
-        <v>0.06199892793478533</v>
+        <v>0.05720441989449456</v>
       </c>
       <c r="T9">
-        <v>0.06199892793478533</v>
+        <v>0.05720441989449456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H10">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N10">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q10">
-        <v>2128.773893638835</v>
+        <v>2446.144345701769</v>
       </c>
       <c r="R10">
-        <v>2128.773893638835</v>
+        <v>22015.29911131592</v>
       </c>
       <c r="S10">
-        <v>0.08072605436629121</v>
+        <v>0.08276375651424563</v>
       </c>
       <c r="T10">
-        <v>0.08072605436629121</v>
+        <v>0.08276375651424563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H11">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N11">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O11">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P11">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q11">
-        <v>202.3399810194198</v>
+        <v>218.1558816218418</v>
       </c>
       <c r="R11">
-        <v>202.3399810194198</v>
+        <v>1963.402934596576</v>
       </c>
       <c r="S11">
-        <v>0.007673012318056564</v>
+        <v>0.007381167141843722</v>
       </c>
       <c r="T11">
-        <v>0.007673012318056564</v>
+        <v>0.007381167141843722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H12">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N12">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O12">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P12">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q12">
-        <v>1416.222815459971</v>
+        <v>1525.139993007191</v>
       </c>
       <c r="R12">
-        <v>1416.222815459971</v>
+        <v>13726.25993706472</v>
       </c>
       <c r="S12">
-        <v>0.05370513060932908</v>
+        <v>0.05160215309991149</v>
       </c>
       <c r="T12">
-        <v>0.05370513060932908</v>
+        <v>0.05160215309991148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H13">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N13">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P13">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q13">
-        <v>572.5142162007979</v>
+        <v>594.4333002555186</v>
       </c>
       <c r="R13">
-        <v>572.5142162007979</v>
+        <v>5349.899702299667</v>
       </c>
       <c r="S13">
-        <v>0.0217105320018272</v>
+        <v>0.02011227710774895</v>
       </c>
       <c r="T13">
-        <v>0.0217105320018272</v>
+        <v>0.02011227710774894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H14">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N14">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O14">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P14">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q14">
-        <v>3307.841839990349</v>
+        <v>3515.288504588405</v>
       </c>
       <c r="R14">
-        <v>3307.841839990349</v>
+        <v>31637.59654129565</v>
       </c>
       <c r="S14">
-        <v>0.1254379438831363</v>
+        <v>0.1189375771639571</v>
       </c>
       <c r="T14">
-        <v>0.1254379438831363</v>
+        <v>0.1189375771639571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H15">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N15">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O15">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P15">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q15">
-        <v>4306.994154657528</v>
+        <v>5085.94410025792</v>
       </c>
       <c r="R15">
-        <v>4306.994154657528</v>
+        <v>45773.49690232128</v>
       </c>
       <c r="S15">
-        <v>0.1633271834660944</v>
+        <v>0.172079722073004</v>
       </c>
       <c r="T15">
-        <v>0.1633271834660944</v>
+        <v>0.172079722073004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H16">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N16">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O16">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P16">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q16">
-        <v>409.3798397792688</v>
+        <v>453.5826436492902</v>
       </c>
       <c r="R16">
-        <v>409.3798397792688</v>
+        <v>4082.243792843612</v>
       </c>
       <c r="S16">
-        <v>0.01552425050928948</v>
+        <v>0.01534668366731558</v>
       </c>
       <c r="T16">
-        <v>0.01552425050928948</v>
+        <v>0.01534668366731558</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H17">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N17">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O17">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P17">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q17">
-        <v>961.7046076052404</v>
+        <v>1027.566589269004</v>
       </c>
       <c r="R17">
-        <v>961.7046076052404</v>
+        <v>9248.099303421033</v>
       </c>
       <c r="S17">
-        <v>0.03646917066666396</v>
+        <v>0.03476706971355578</v>
       </c>
       <c r="T17">
-        <v>0.03646917066666396</v>
+        <v>0.03476706971355577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H18">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N18">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O18">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P18">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q18">
-        <v>388.7732591435379</v>
+        <v>400.5008075928153</v>
       </c>
       <c r="R18">
-        <v>388.7732591435379</v>
+        <v>3604.507268335338</v>
       </c>
       <c r="S18">
-        <v>0.0147428204317814</v>
+        <v>0.01355069310673122</v>
       </c>
       <c r="T18">
-        <v>0.0147428204317814</v>
+        <v>0.01355069310673122</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H19">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N19">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O19">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P19">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q19">
-        <v>2246.233222640827</v>
+        <v>2368.433740849003</v>
       </c>
       <c r="R19">
-        <v>2246.233222640827</v>
+        <v>21315.90366764102</v>
       </c>
       <c r="S19">
-        <v>0.08518027480143321</v>
+        <v>0.08013446704082991</v>
       </c>
       <c r="T19">
-        <v>0.08518027480143321</v>
+        <v>0.08013446704082991</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H20">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N20">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O20">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P20">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q20">
-        <v>2924.720657121807</v>
+        <v>3426.66657243064</v>
       </c>
       <c r="R20">
-        <v>2924.720657121807</v>
+        <v>30839.99915187576</v>
       </c>
       <c r="S20">
-        <v>0.1109094580117425</v>
+        <v>0.1159391097890389</v>
       </c>
       <c r="T20">
-        <v>0.1109094580117425</v>
+        <v>0.1159391097890389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H21">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N21">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O21">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P21">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q21">
-        <v>277.9947292746786</v>
+        <v>305.6023527173491</v>
       </c>
       <c r="R21">
-        <v>277.9947292746786</v>
+        <v>2750.421174456142</v>
       </c>
       <c r="S21">
-        <v>0.01054194515257312</v>
+        <v>0.01033986353050768</v>
       </c>
       <c r="T21">
-        <v>0.01054194515257312</v>
+        <v>0.01033986353050768</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H22">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N22">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O22">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P22">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q22">
-        <v>181.8855292217283</v>
+        <v>206.11111763004</v>
       </c>
       <c r="R22">
-        <v>181.8855292217283</v>
+        <v>1855.00005867036</v>
       </c>
       <c r="S22">
-        <v>0.006897351176783066</v>
+        <v>0.006973640122417957</v>
       </c>
       <c r="T22">
-        <v>0.006897351176783066</v>
+        <v>0.006973640122417955</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H23">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N23">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O23">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P23">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q23">
-        <v>73.5280141400803</v>
+        <v>80.33315789628</v>
       </c>
       <c r="R23">
-        <v>73.5280141400803</v>
+        <v>722.99842106652</v>
       </c>
       <c r="S23">
-        <v>0.002788284131374538</v>
+        <v>0.002718021907346087</v>
       </c>
       <c r="T23">
-        <v>0.002788284131374538</v>
+        <v>0.002718021907346087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H24">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N24">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O24">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P24">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q24">
-        <v>424.826204662585</v>
+        <v>475.0646142615</v>
       </c>
       <c r="R24">
-        <v>424.826204662585</v>
+        <v>4275.581528353499</v>
       </c>
       <c r="S24">
-        <v>0.01610999805864557</v>
+        <v>0.01607351264137805</v>
       </c>
       <c r="T24">
-        <v>0.01610999805864557</v>
+        <v>0.01607351264137805</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H25">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N25">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O25">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P25">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q25">
-        <v>553.1473597396769</v>
+        <v>687.3268208259</v>
       </c>
       <c r="R25">
-        <v>553.1473597396769</v>
+        <v>6185.941387433099</v>
       </c>
       <c r="S25">
-        <v>0.02097611398201948</v>
+        <v>0.02325527099187824</v>
       </c>
       <c r="T25">
-        <v>0.02097611398201948</v>
+        <v>0.02325527099187824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H26">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N26">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O26">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P26">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q26">
-        <v>52.5766623712914</v>
+        <v>61.29825855252</v>
       </c>
       <c r="R26">
-        <v>52.5766623712914</v>
+        <v>551.68432697268</v>
       </c>
       <c r="S26">
-        <v>0.001993779854998114</v>
+        <v>0.00207398805164647</v>
       </c>
       <c r="T26">
-        <v>0.001993779854998114</v>
+        <v>0.00207398805164647</v>
       </c>
     </row>
   </sheetData>
